--- a/biology/Zoologie/Euagrus_lynceus/Euagrus_lynceus.xlsx
+++ b/biology/Zoologie/Euagrus_lynceus/Euagrus_lynceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euagrus lynceus est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euagrus lynceus est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique au Veracruz, au Tabasco, en Oaxaca, au Chiapas et au Guatemala[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique au Veracruz, au Tabasco, en Oaxaca, au Chiapas et au Guatemala,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,17 mm et la femelle paratype 6,19 mm[3].
-La carapace du mâle holotype mesure 2,9 mm de long sur 2,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,17 mm et la femelle paratype 6,19 mm.
+La carapace du mâle holotype mesure 2,9 mm de long sur 2,4 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brignoli, 1974 : Notes on spiders, mainly cave-dwelling, of southern Mexico and Guatemala (Araneae). Quaderno, Accademia Nazionale dei Lincei, vol. 171, no 2, p. 195-238.</t>
         </is>
